--- a/ket_qua_du_doan.xlsx
+++ b/ket_qua_du_doan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Điểm dự đoán</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tên file</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +459,7 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -464,6 +470,7 @@
       <c r="B3" t="n">
         <v>3</v>
       </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -474,6 +481,7 @@
       <c r="B4" t="n">
         <v>8</v>
       </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -484,6 +492,7 @@
       <c r="B5" t="n">
         <v>6</v>
       </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -494,6 +503,7 @@
       <c r="B6" t="n">
         <v>10</v>
       </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,6 +514,7 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -514,6 +525,7 @@
       <c r="B8" t="n">
         <v>2</v>
       </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -524,6 +536,7 @@
       <c r="B9" t="n">
         <v>2</v>
       </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -534,6 +547,7 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -544,6 +558,7 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -554,6 +569,7 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -564,6 +580,7 @@
       <c r="B13" t="n">
         <v>8</v>
       </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -574,6 +591,7 @@
       <c r="B14" t="n">
         <v>6</v>
       </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -584,6 +602,7 @@
       <c r="B15" t="n">
         <v>10</v>
       </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -594,6 +613,7 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -604,6 +624,7 @@
       <c r="B17" t="n">
         <v>2</v>
       </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -614,6 +635,7 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -624,6 +646,7 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -634,6 +657,7 @@
       <c r="B20" t="n">
         <v>1</v>
       </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -644,6 +668,7 @@
       <c r="B21" t="n">
         <v>3</v>
       </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -654,6 +679,7 @@
       <c r="B22" t="n">
         <v>8</v>
       </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -664,6 +690,7 @@
       <c r="B23" t="n">
         <v>6</v>
       </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -674,6 +701,7 @@
       <c r="B24" t="n">
         <v>10</v>
       </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -684,6 +712,7 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -694,6 +723,7 @@
       <c r="B26" t="n">
         <v>2</v>
       </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -704,6 +734,7 @@
       <c r="B27" t="n">
         <v>2</v>
       </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -714,6 +745,7 @@
       <c r="B28" t="n">
         <v>0</v>
       </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -724,6 +756,7 @@
       <c r="B29" t="n">
         <v>10</v>
       </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -734,6 +767,7 @@
       <c r="B30" t="n">
         <v>1</v>
       </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -744,6 +778,7 @@
       <c r="B31" t="n">
         <v>3</v>
       </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -754,6 +789,7 @@
       <c r="B32" t="n">
         <v>8</v>
       </c>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -764,6 +800,7 @@
       <c r="B33" t="n">
         <v>6</v>
       </c>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -774,6 +811,7 @@
       <c r="B34" t="n">
         <v>10</v>
       </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -784,6 +822,7 @@
       <c r="B35" t="n">
         <v>0</v>
       </c>
+      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -794,6 +833,7 @@
       <c r="B36" t="n">
         <v>2</v>
       </c>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -804,6 +844,7 @@
       <c r="B37" t="n">
         <v>2</v>
       </c>
+      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -814,6 +855,7 @@
       <c r="B38" t="n">
         <v>0</v>
       </c>
+      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -824,6 +866,7 @@
       <c r="B39" t="n">
         <v>10</v>
       </c>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -834,6 +877,7 @@
       <c r="B40" t="n">
         <v>2</v>
       </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -844,6 +888,7 @@
       <c r="B41" t="n">
         <v>4</v>
       </c>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -854,6 +899,7 @@
       <c r="B42" t="n">
         <v>1</v>
       </c>
+      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -864,6 +910,7 @@
       <c r="B43" t="n">
         <v>0</v>
       </c>
+      <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -874,6 +921,7 @@
       <c r="B44" t="n">
         <v>6</v>
       </c>
+      <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -884,6 +932,7 @@
       <c r="B45" t="n">
         <v>5</v>
       </c>
+      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -894,6 +943,7 @@
       <c r="B46" t="n">
         <v>8</v>
       </c>
+      <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -904,6 +954,7 @@
       <c r="B47" t="n">
         <v>7</v>
       </c>
+      <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -914,6 +965,7 @@
       <c r="B48" t="n">
         <v>10</v>
       </c>
+      <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -924,6 +976,7 @@
       <c r="B49" t="n">
         <v>9</v>
       </c>
+      <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -934,6 +987,7 @@
       <c r="B50" t="n">
         <v>1</v>
       </c>
+      <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -944,6 +998,7 @@
       <c r="B51" t="n">
         <v>3</v>
       </c>
+      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -954,6 +1009,7 @@
       <c r="B52" t="n">
         <v>8</v>
       </c>
+      <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -964,6 +1020,7 @@
       <c r="B53" t="n">
         <v>6</v>
       </c>
+      <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -974,6 +1031,7 @@
       <c r="B54" t="n">
         <v>10</v>
       </c>
+      <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -984,6 +1042,7 @@
       <c r="B55" t="n">
         <v>0</v>
       </c>
+      <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -994,6 +1053,7 @@
       <c r="B56" t="n">
         <v>2</v>
       </c>
+      <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1004,6 +1064,7 @@
       <c r="B57" t="n">
         <v>2</v>
       </c>
+      <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1014,6 +1075,7 @@
       <c r="B58" t="n">
         <v>0</v>
       </c>
+      <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1024,6 +1086,7 @@
       <c r="B59" t="n">
         <v>10</v>
       </c>
+      <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1034,6 +1097,7 @@
       <c r="B60" t="n">
         <v>2</v>
       </c>
+      <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1044,6 +1108,7 @@
       <c r="B61" t="n">
         <v>4</v>
       </c>
+      <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1054,6 +1119,7 @@
       <c r="B62" t="n">
         <v>1</v>
       </c>
+      <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1064,6 +1130,7 @@
       <c r="B63" t="n">
         <v>0</v>
       </c>
+      <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1074,6 +1141,7 @@
       <c r="B64" t="n">
         <v>6</v>
       </c>
+      <c r="C64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1084,6 +1152,7 @@
       <c r="B65" t="n">
         <v>5</v>
       </c>
+      <c r="C65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1094,6 +1163,7 @@
       <c r="B66" t="n">
         <v>8</v>
       </c>
+      <c r="C66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1104,6 +1174,7 @@
       <c r="B67" t="n">
         <v>7</v>
       </c>
+      <c r="C67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1114,6 +1185,7 @@
       <c r="B68" t="n">
         <v>10</v>
       </c>
+      <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1123,6 +1195,29 @@
       </c>
       <c r="B69" t="n">
         <v>9</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>9</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>50.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>8</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3.png</t>
+        </is>
       </c>
     </row>
   </sheetData>
